--- a/myapp/files/9_MethodComparePercent/Scenario 296.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 296.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2200</v>
+        <v>7520</v>
       </c>
       <c r="F2" t="n">
-        <v>4.33702637700587</v>
+        <v>1.31011137688873</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.56410256410256</v>
+        <v>0.977198697068404</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3680</v>
+        <v>11035</v>
       </c>
       <c r="F3" t="n">
-        <v>7.25466230335528</v>
+        <v>1.92248391542116</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>5.12820512820513</v>
+        <v>1.62866449511401</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>4536</v>
+        <v>15526</v>
       </c>
       <c r="F4" t="n">
-        <v>8.94215983913575</v>
+        <v>2.70489218584766</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>5.12820512820513</v>
+        <v>2.60586319218241</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>966</v>
+        <v>18193</v>
       </c>
       <c r="F5" t="n">
-        <v>1.90434885463076</v>
+        <v>3.16952876060328</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>2.56410256410256</v>
+        <v>3.90879478827362</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>23708</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.13033517596782</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -745,10 +745,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.58306188925081</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7760</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.35192344210858</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.30293159609121</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>19035</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.3162194227496</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.93159609120521</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>918</v>
+        <v>34404</v>
       </c>
       <c r="F9" t="n">
-        <v>1.809722824587</v>
+        <v>5.99375954926594</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>2.56410256410256</v>
+        <v>4.23452768729642</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>850</v>
+        <v>25985</v>
       </c>
       <c r="F10" t="n">
-        <v>1.675669282025</v>
+        <v>4.52702714474117</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>2.56410256410256</v>
+        <v>5.86319218241042</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2086</v>
+        <v>17875</v>
       </c>
       <c r="F11" t="n">
-        <v>4.11228955565193</v>
+        <v>3.11412777418697</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
-        <v>5.12820512820513</v>
+        <v>5.21172638436482</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7783</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.35593043169215</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.977198697068404</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>58</v>
+        <v>32402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.114339786302882</v>
+        <v>5.644977238557</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>2.56410256410256</v>
+        <v>4.56026058631922</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>6722</v>
+        <v>55168</v>
       </c>
       <c r="F14" t="n">
-        <v>13.2515869573789</v>
+        <v>9.61120005853689</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -1049,10 +1049,10 @@
         <v>11.4285714285714</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>10.2564102564103</v>
+        <v>7.16612377850163</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>5656</v>
+        <v>47958</v>
       </c>
       <c r="F15" t="n">
-        <v>11.1501005401569</v>
+        <v>8.35509593255714</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
@@ -1087,10 +1087,10 @@
         <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>7.69230769230769</v>
+        <v>7.81758957654723</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1746</v>
+        <v>24947</v>
       </c>
       <c r="F16" t="n">
-        <v>3.44202184284194</v>
+        <v>4.34618996266531</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>5.12820512820513</v>
+        <v>3.90879478827362</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5578</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.971782082484752</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.977198697068404</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>250</v>
+        <v>23695</v>
       </c>
       <c r="F18" t="n">
-        <v>0.49284390647794</v>
+        <v>4.12807035576841</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>2.56410256410256</v>
+        <v>3.90879478827362</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>50019</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0394275125182352</v>
+        <v>8.71415704263263</v>
       </c>
       <c r="G19" t="n">
         <v>16</v>
@@ -1239,10 +1239,10 @@
         <v>22.8571428571429</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>2.56410256410256</v>
+        <v>6.51465798045603</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1648</v>
+        <v>52108</v>
       </c>
       <c r="F20" t="n">
-        <v>3.24882703150258</v>
+        <v>9.07809622698376</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -1277,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>7.69230769230769</v>
+        <v>9.77198697068404</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>3386</v>
+        <v>28269</v>
       </c>
       <c r="F21" t="n">
-        <v>6.67507786933722</v>
+        <v>4.92493863208344</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>10.2564102564103</v>
+        <v>5.86319218241042</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>7.14285714285714</v>
+        <v>8.57142857142857</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2170</v>
+        <v>4846</v>
       </c>
       <c r="F22" t="n">
-        <v>4.27788510822852</v>
+        <v>0.8442552835642</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.56410256410256</v>
+        <v>0.977198697068404</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2619</v>
+        <v>8578</v>
       </c>
       <c r="F23" t="n">
-        <v>5.1630327642629</v>
+        <v>1.49443289773291</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5.12820512820513</v>
+        <v>2.28013029315961</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>4698</v>
+        <v>17982</v>
       </c>
       <c r="F24" t="n">
-        <v>9.26152269053345</v>
+        <v>3.13276898659749</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J24" t="n">
-        <v>5.12820512820513</v>
+        <v>4.23452768729642</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2925</v>
+        <v>17281</v>
       </c>
       <c r="F25" t="n">
-        <v>5.7662737057919</v>
+        <v>3.01064291276784</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>7.69230769230769</v>
+        <v>5.53745928338762</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>3592</v>
+        <v>16342</v>
       </c>
       <c r="F26" t="n">
-        <v>7.08118124827505</v>
+        <v>2.84705320759516</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>5.12820512820513</v>
+        <v>3.25732899022801</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>5.71428571428571</v>
+        <v>4.28571428571429</v>
       </c>
     </row>
   </sheetData>
